--- a/pred_ohlcv/54_21/2019-10-29 MTL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 MTL ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>507288.05048074</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>507288.05048074</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>473886.64318074</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>431479.42868074</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -574,7 +574,7 @@
         <v>442213.9944742901</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>442213.9944742901</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -652,7 +652,7 @@
         <v>337977.1692171501</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>337977.1692171501</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -730,7 +730,7 @@
         <v>335324.3916702601</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>275217.03717026</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>314969.62640563</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -990,7 +990,7 @@
         <v>191156.05889602</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>204044.40599602</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>171948.33249602</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>193759.84662133</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>191482.70264664</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>186744.73204664</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>186971.46174664</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>174661.80144664</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>174661.80144664</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-215812.99184171</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-215812.99184171</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-213663.54643177</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-225497.50443177</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-224736.57093177</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-222016.57093177</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-232791.40283177</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-232059.40283177</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-232059.40283177</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-218149.01053177</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-212237.01053177</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-214791.4743134</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-219999.3450134</v>
       </c>
       <c r="H564">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-216731.81347365</v>
       </c>
       <c r="H566">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-218077.20028024</v>
       </c>
       <c r="H567">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-238640.6994999399</v>
       </c>
       <c r="H603">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-238620.6994999399</v>
       </c>
       <c r="H604">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-238620.6994999399</v>
       </c>
       <c r="H605">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-248699.16349994</v>
       </c>
       <c r="H606">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-252039.06989994</v>
       </c>
       <c r="H612">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-252286.80229994</v>
       </c>
       <c r="H613">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-253354.84989994</v>
       </c>
       <c r="H614">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-256190.17919994</v>
       </c>
       <c r="H615">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-255968.17919994</v>
       </c>
       <c r="H616">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-261463.75689994</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-254619.37079994</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-254619.37079994</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-258681.91639994</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-264652.42689994</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-258098.83069994</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-258098.83069994</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-263173.05359994</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-257290.99719994</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-259757.21589994</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-259701.49829994</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-255717.20159994</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-245776.2356999399</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-249018.58929994</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-249018.58929994</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-249266.1234999399</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-249365.53789994</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-248352.00159081</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-248352.00159081</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-248352.00159081</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-248352.00159081</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-250107.3548908099</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-250107.3548908099</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-250107.3548908099</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-259184.2541908099</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-259124.2726908099</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-258298.8046908099</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-258298.8046908099</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-258527.8100908099</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-258526.8100908099</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-258726.8099908099</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-258726.8099908099</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-258705.8099908099</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-259528.9558908099</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-266911.50029081</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-264017.7224908099</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-264017.7224908099</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-264017.7224908099</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-264017.7224908099</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-270095.5917908099</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-254160.6098908099</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-285857.9496908099</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-283954.7520908099</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-283954.7520908099</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-283954.7520908099</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-283954.7520908099</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-283954.7520908099</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-279998.9969867299</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-279998.9969867299</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-279998.9969867299</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-279998.9969867299</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-271644.7622867299</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-271644.7622867299</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-272037.5907867299</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-299524.4704685597</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-306691.3454685597</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-305317.4327501797</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-310966.5993501797</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-310965.5993501797</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-319888.3266501797</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-319888.3266501797</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-319888.3266501797</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-322634.3226501797</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-322634.3226501797</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-316502.4015501797</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-311283.8307501797</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-297831.9591501797</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-316985.5331482196</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-326760.8911482196</v>
       </c>
       <c r="H894">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-326760.8911482196</v>
       </c>
       <c r="H895">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>-326760.8911482196</v>
       </c>
       <c r="H896">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-326085.6607482196</v>
       </c>
       <c r="H897">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-333905.4730482196</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-283560.3769482196</v>
       </c>
       <c r="H899">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>-283575.3769482196</v>
       </c>
       <c r="H900">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>-281718.9413482196</v>
       </c>
       <c r="H901">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-281839.5551482196</v>
       </c>
       <c r="H902">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-270735.5691482196</v>
       </c>
       <c r="H903">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-270734.5691482196</v>
       </c>
       <c r="H904">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-270808.5365482196</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>-270533.0022482196</v>
       </c>
       <c r="H906">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>-270533.0022482196</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>-275093.0194482196</v>
       </c>
       <c r="H909">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-268798.4884482196</v>
       </c>
       <c r="H910">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>-282803.8130482197</v>
       </c>
       <c r="H916">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-282804.8130482197</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-282509.3382482196</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-282510.3382482196</v>
       </c>
       <c r="H919">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-282228.8861482196</v>
       </c>
       <c r="H920">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>-282835.1867482197</v>
       </c>
       <c r="H921">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>-279033.0686482196</v>
       </c>
       <c r="H922">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>-279033.0686482196</v>
       </c>
       <c r="H923">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>-279033.0686482196</v>
       </c>
       <c r="H924">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>-279030.0686482196</v>
       </c>
       <c r="H925">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>-279030.0686482196</v>
       </c>
       <c r="H926">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>-269362.3393482196</v>
       </c>
       <c r="H927">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="928" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-29 MTL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 MTL ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>507288.05048074</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -548,7 +548,7 @@
         <v>401632.3069993</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>442213.9944742901</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>442213.9944742901</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>373661.65626107</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -990,7 +990,7 @@
         <v>191156.05889602</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>204044.40599602</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>171948.33249602</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>193759.84662133</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>191482.70264664</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>186744.73204664</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>186971.46174664</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>174661.80144664</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>174661.80144664</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>155758.7581085101</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>150558.7732085101</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>142080.7769085101</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>132494.3054085101</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>120908.9687085101</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>144007.1911085101</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>144007.1911085101</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>144007.1911085101</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>134376.6420085101</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>128167.4003085101</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>118188.2708085101</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>118288.2708085101</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>118040.0063085101</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>119132.5765085101</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>119132.5765085101</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>119132.5765085101</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>122588.5793085101</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>114872.7797085101</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>116150.9370085101</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>112413.3655085101</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>131968.3570085101</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>135847.0683505601</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>133263.1491505601</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>131983.2306505601</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>131983.2306505601</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>131983.2306505601</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>130633.8115505601</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>130697.4940331401</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>128299.2199331401</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>128299.2199331401</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-215812.99184171</v>
       </c>
       <c r="H546">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-215812.99184171</v>
       </c>
       <c r="H547">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-213663.54643177</v>
       </c>
       <c r="H548">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-225497.50443177</v>
       </c>
       <c r="H549">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-224736.57093177</v>
       </c>
       <c r="H550">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-222016.57093177</v>
       </c>
       <c r="H551">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-232791.40283177</v>
       </c>
       <c r="H554">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-232059.40283177</v>
       </c>
       <c r="H555">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-232059.40283177</v>
       </c>
       <c r="H556">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-218149.01053177</v>
       </c>
       <c r="H557">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-212237.01053177</v>
       </c>
       <c r="H558">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-214791.4743134</v>
       </c>
       <c r="H560">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-219999.3450134</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-216731.81347365</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-218077.20028024</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-238640.6994999399</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-238620.6994999399</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-238620.6994999399</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-248699.16349994</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-252039.06989994</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-252286.80229994</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-253354.84989994</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-256190.17919994</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-255968.17919994</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-248352.00159081</v>
       </c>
       <c r="H641">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-248352.00159081</v>
       </c>
       <c r="H642">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-248352.00159081</v>
       </c>
       <c r="H643">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-250107.3548908099</v>
       </c>
       <c r="H650">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-250107.3548908099</v>
       </c>
       <c r="H651">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-250107.3548908099</v>
       </c>
       <c r="H653">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-259184.2541908099</v>
       </c>
       <c r="H654">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-259124.2726908099</v>
       </c>
       <c r="H655">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-258298.8046908099</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-255160.6098908099</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-283954.7520908099</v>
       </c>
       <c r="H682">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-283954.7520908099</v>
       </c>
       <c r="H683">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-271644.7622867299</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-271644.7622867299</v>
       </c>
       <c r="H695">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-299524.4704685597</v>
       </c>
       <c r="H793">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-306691.3454685597</v>
       </c>
       <c r="H797">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-305317.4327501797</v>
       </c>
       <c r="H801">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-310966.5993501797</v>
       </c>
       <c r="H807">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-310965.5993501797</v>
       </c>
       <c r="H808">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-319888.3266501797</v>
       </c>
       <c r="H809">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-319888.3266501797</v>
       </c>
       <c r="H810">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-319888.3266501797</v>
       </c>
       <c r="H811">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-322634.3226501797</v>
       </c>
       <c r="H812">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-322634.3226501797</v>
       </c>
       <c r="H813">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-326725.8850501797</v>
       </c>
       <c r="H814">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-316659.1089501797</v>
       </c>
       <c r="H815">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-316659.1089501797</v>
       </c>
       <c r="H816">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-317348.8453501797</v>
       </c>
       <c r="H817">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-317101.4015501797</v>
       </c>
       <c r="H818">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-316502.4015501797</v>
       </c>
       <c r="H819">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-316502.4015501797</v>
       </c>
       <c r="H820">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-311283.8307501797</v>
       </c>
       <c r="H821">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-297831.9591501797</v>
       </c>
       <c r="H822">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-316985.5331482196</v>
       </c>
       <c r="H893">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-326760.8911482196</v>
       </c>
       <c r="H894">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-326760.8911482196</v>
       </c>
       <c r="H895">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>-326760.8911482196</v>
       </c>
       <c r="H896">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-326085.6607482196</v>
       </c>
       <c r="H897">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-333905.4730482196</v>
       </c>
       <c r="H898">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-283560.3769482196</v>
       </c>
       <c r="H899">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>-283575.3769482196</v>
       </c>
       <c r="H900">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>-281718.9413482196</v>
       </c>
       <c r="H901">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-281839.5551482196</v>
       </c>
       <c r="H902">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-270735.5691482196</v>
       </c>
       <c r="H903">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-270734.5691482196</v>
       </c>
       <c r="H904">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-270808.5365482196</v>
       </c>
       <c r="H905">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>-270533.0022482196</v>
       </c>
       <c r="H906">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>-270533.0022482196</v>
       </c>
       <c r="H907">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>-275093.0194482196</v>
       </c>
       <c r="H909">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-268798.4884482196</v>
       </c>
       <c r="H910">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>-282803.8130482197</v>
       </c>
       <c r="H916">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-282804.8130482197</v>
       </c>
       <c r="H917">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-282509.3382482196</v>
       </c>
       <c r="H918">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-282510.3382482196</v>
       </c>
       <c r="H919">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-282228.8861482196</v>
       </c>
       <c r="H920">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>-282835.1867482197</v>
       </c>
       <c r="H921">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>-279033.0686482196</v>
       </c>
       <c r="H922">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>-279033.0686482196</v>
       </c>
       <c r="H923">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>-279033.0686482196</v>
       </c>
       <c r="H924">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>-279030.0686482196</v>
       </c>
       <c r="H925">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>-279030.0686482196</v>
       </c>
       <c r="H926">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>-269362.3393482196</v>
       </c>
       <c r="H927">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="928" spans="1:8">
